--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 3/03-04-switch-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 3/03-04-switch-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{53C6C071-9C2F-423B-BE18-0529B2E5A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{603B8CEA-4D77-468F-8581-812D51847701}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2C372-C46B-41C5-B05C-1018E99A0A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="588" windowWidth="14712" windowHeight="12180" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="5868" yWindow="336" windowWidth="17280" windowHeight="8880" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="SWITCH" sheetId="4" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Movies</t>
   </si>
@@ -211,6 +233,12 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>using XLOOKUP</t>
+  </si>
+  <si>
+    <t>using SWITCH</t>
   </si>
 </sst>
 </file>
@@ -218,18 +246,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -252,6 +273,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -302,21 +330,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{0C0485B3-A66C-45F9-9272-3D9137A3AD9F}"/>
@@ -594,10 +622,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:N52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L19:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,491 +633,867 @@
     <col min="1" max="1" width="14.296875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="4" max="4" width="41.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" t="str" cm="1">
+        <f t="array" ref="E3">_xlfn.SWITCH(F3,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" t="str">
+        <f>_xlfn.XLOOKUP(F3,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4">_xlfn.SWITCH(F4,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" t="str">
+        <f>_xlfn.XLOOKUP(F4,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5">_xlfn.SWITCH(F5,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" t="str">
+        <f>_xlfn.XLOOKUP(F5,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" t="str" cm="1">
+        <f t="array" ref="E6">_xlfn.SWITCH(F6,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" t="str">
+        <f>_xlfn.XLOOKUP(F6,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" t="str" cm="1">
+        <f t="array" ref="E7">_xlfn.SWITCH(F7,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" t="str">
+        <f>_xlfn.XLOOKUP(F7,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" t="str" cm="1">
+        <f t="array" ref="E8">_xlfn.SWITCH(F8,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F8" s="2">
         <v>7</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" t="str">
+        <f>_xlfn.XLOOKUP(F8,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
+      <c r="E9" t="str" cm="1">
+        <f t="array" ref="E9">_xlfn.SWITCH(F9,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" t="str">
+        <f>_xlfn.XLOOKUP(F9,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3">
+      <c r="E10" t="str" cm="1">
+        <f t="array" ref="E10">_xlfn.SWITCH(F10,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" t="str">
+        <f>_xlfn.XLOOKUP(F10,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" t="str" cm="1">
+        <f t="array" ref="E11">_xlfn.SWITCH(F11,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" t="str">
+        <f>_xlfn.XLOOKUP(F11,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E12" t="str" cm="1">
+        <f t="array" ref="E12">_xlfn.SWITCH(F12,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F12" s="2">
         <v>7</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" t="str">
+        <f>_xlfn.XLOOKUP(F12,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3">
+      <c r="E13" t="str" cm="1">
+        <f t="array" ref="E13">_xlfn.SWITCH(F13,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" t="str">
+        <f>_xlfn.XLOOKUP(F13,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" t="str" cm="1">
+        <f t="array" ref="E14">_xlfn.SWITCH(F14,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F14" s="2">
         <v>7</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" t="str">
+        <f>_xlfn.XLOOKUP(F14,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3">
+      <c r="E15" t="str" cm="1">
+        <f t="array" ref="E15">_xlfn.SWITCH(F15,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F15" s="2">
         <v>6</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" t="str">
+        <f>_xlfn.XLOOKUP(F15,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3">
+      <c r="E16" t="str" cm="1">
+        <f t="array" ref="E16">_xlfn.SWITCH(F16,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F16" s="2">
         <v>7</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" t="str">
+        <f>_xlfn.XLOOKUP(F16,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="3">
+      <c r="E17" t="str" cm="1">
+        <f t="array" ref="E17">_xlfn.SWITCH(F17,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" t="str">
+        <f>_xlfn.XLOOKUP(F17,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="3">
+      <c r="E18" t="str" cm="1">
+        <f t="array" ref="E18">_xlfn.SWITCH(F18,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F18" s="2">
         <v>6</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" t="str">
+        <f>_xlfn.XLOOKUP(F18,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="3">
+      <c r="E19" t="str" cm="1">
+        <f t="array" ref="E19">_xlfn.SWITCH(F19,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F19" s="2">
         <v>6</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" t="str">
+        <f>_xlfn.XLOOKUP(F19,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="3">
+      <c r="E20" t="str" cm="1">
+        <f t="array" ref="E20">_xlfn.SWITCH(F20,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F20" s="2">
         <v>7</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" t="str">
+        <f>_xlfn.XLOOKUP(F20,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="3">
+      <c r="E21" t="str" cm="1">
+        <f t="array" ref="E21">_xlfn.SWITCH(F21,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" t="str">
+        <f>_xlfn.XLOOKUP(F21,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="3">
+      <c r="E22" t="str" cm="1">
+        <f t="array" ref="E22">_xlfn.SWITCH(F22,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" t="str">
+        <f>_xlfn.XLOOKUP(F22,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="3">
+      <c r="E23" t="str" cm="1">
+        <f t="array" ref="E23">_xlfn.SWITCH(F23,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F23" s="2">
         <v>7</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" t="str">
+        <f>_xlfn.XLOOKUP(F23,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3">
+      <c r="E24" t="str" cm="1">
+        <f t="array" ref="E24">_xlfn.SWITCH(F24,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F24" s="2">
         <v>6</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" t="str">
+        <f>_xlfn.XLOOKUP(F24,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="3">
+      <c r="E25" t="str" cm="1">
+        <f t="array" ref="E25">_xlfn.SWITCH(F25,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" t="str">
+        <f>_xlfn.XLOOKUP(F25,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="E26" t="str" cm="1">
+        <f t="array" ref="E26">_xlfn.SWITCH(F26,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F26" s="2">
         <v>8</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" t="str">
+        <f>_xlfn.XLOOKUP(F26,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="3">
+      <c r="E27" t="str" cm="1">
+        <f t="array" ref="E27">_xlfn.SWITCH(F27,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F27" s="2">
         <v>6</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" t="str">
+        <f>_xlfn.XLOOKUP(F27,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="3">
+      <c r="E28" t="str" cm="1">
+        <f t="array" ref="E28">_xlfn.SWITCH(F28,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" t="str">
+        <f>_xlfn.XLOOKUP(F28,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="3">
+      <c r="E29" t="str" cm="1">
+        <f t="array" ref="E29">_xlfn.SWITCH(F29,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" t="str">
+        <f>_xlfn.XLOOKUP(F29,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="3">
+      <c r="E30" t="str" cm="1">
+        <f t="array" ref="E30">_xlfn.SWITCH(F30,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F30" s="2">
         <v>7</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" t="str">
+        <f>_xlfn.XLOOKUP(F30,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="3">
+      <c r="E31" t="str" cm="1">
+        <f t="array" ref="E31">_xlfn.SWITCH(F31,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F31" s="2">
         <v>6</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" t="str">
+        <f>_xlfn.XLOOKUP(F31,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="3">
+      <c r="E32" t="str" cm="1">
+        <f t="array" ref="E32">_xlfn.SWITCH(F32,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F32" s="2">
         <v>6</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" t="str">
+        <f>_xlfn.XLOOKUP(F32,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="3">
+      <c r="E33" t="str" cm="1">
+        <f t="array" ref="E33">_xlfn.SWITCH(F33,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F33" s="2">
         <v>7</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" t="str">
+        <f>_xlfn.XLOOKUP(F33,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="3">
+      <c r="E34" t="str" cm="1">
+        <f t="array" ref="E34">_xlfn.SWITCH(F34,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" t="str">
+        <f>_xlfn.XLOOKUP(F34,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3">
+      <c r="E35" t="str" cm="1">
+        <f t="array" ref="E35">_xlfn.SWITCH(F35,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Excellent</v>
+      </c>
+      <c r="F35" s="2">
         <v>9</v>
+      </c>
+      <c r="H35" t="str">
+        <f>_xlfn.XLOOKUP(F35,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="3">
+      <c r="E36" t="str" cm="1">
+        <f t="array" ref="E36">_xlfn.SWITCH(F36,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F36" s="2">
         <v>5</v>
+      </c>
+      <c r="H36" t="str">
+        <f>_xlfn.XLOOKUP(F36,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="E37" t="str" cm="1">
+        <f t="array" ref="E37">_xlfn.SWITCH(F37,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Excellent</v>
+      </c>
+      <c r="F37" s="2">
         <v>9</v>
+      </c>
+      <c r="H37" t="str">
+        <f>_xlfn.XLOOKUP(F37,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="3">
+      <c r="E38" t="str" cm="1">
+        <f t="array" ref="E38">_xlfn.SWITCH(F38,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Excellent</v>
+      </c>
+      <c r="F38" s="2">
         <v>9</v>
+      </c>
+      <c r="H38" t="str">
+        <f>_xlfn.XLOOKUP(F38,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="3">
+      <c r="E39" t="str" cm="1">
+        <f t="array" ref="E39">_xlfn.SWITCH(F39,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F39" s="2">
         <v>8</v>
+      </c>
+      <c r="H39" t="str">
+        <f>_xlfn.XLOOKUP(F39,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="3">
+      <c r="E40" t="str" cm="1">
+        <f t="array" ref="E40">_xlfn.SWITCH(F40,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F40" s="2">
         <v>6</v>
+      </c>
+      <c r="H40" t="str">
+        <f>_xlfn.XLOOKUP(F40,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E41" t="str" cm="1">
+        <f t="array" ref="E41">_xlfn.SWITCH(F41,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F41" s="2">
         <v>5</v>
+      </c>
+      <c r="H41" t="str">
+        <f>_xlfn.XLOOKUP(F41,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="3">
+      <c r="E42" t="str" cm="1">
+        <f t="array" ref="E42">_xlfn.SWITCH(F42,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F42" s="2">
         <v>6</v>
+      </c>
+      <c r="H42" t="str">
+        <f>_xlfn.XLOOKUP(F42,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="3">
+      <c r="E43" t="str" cm="1">
+        <f t="array" ref="E43">_xlfn.SWITCH(F43,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F43" s="2">
         <v>8</v>
+      </c>
+      <c r="H43" t="str">
+        <f>_xlfn.XLOOKUP(F43,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="3">
+      <c r="E44" t="str" cm="1">
+        <f t="array" ref="E44">_xlfn.SWITCH(F44,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+      <c r="F44" s="2">
         <v>8</v>
+      </c>
+      <c r="H44" t="str">
+        <f>_xlfn.XLOOKUP(F44,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Very Good</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="3">
+      <c r="E45" t="str" cm="1">
+        <f t="array" ref="E45">_xlfn.SWITCH(F45,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F45" s="2">
         <v>7</v>
+      </c>
+      <c r="H45" t="str">
+        <f>_xlfn.XLOOKUP(F45,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="3">
+      <c r="E46" t="str" cm="1">
+        <f t="array" ref="E46">_xlfn.SWITCH(F46,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F46" s="2">
         <v>7</v>
+      </c>
+      <c r="H46" t="str">
+        <f>_xlfn.XLOOKUP(F46,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="3">
+      <c r="E47" t="str" cm="1">
+        <f t="array" ref="E47">_xlfn.SWITCH(F47,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F47" s="2">
         <v>5</v>
+      </c>
+      <c r="H47" t="str">
+        <f>_xlfn.XLOOKUP(F47,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="3">
+      <c r="E48" t="str" cm="1">
+        <f t="array" ref="E48">_xlfn.SWITCH(F48,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F48" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f>_xlfn.XLOOKUP(F48,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="3">
+      <c r="E49" t="str" cm="1">
+        <f t="array" ref="E49">_xlfn.SWITCH(F49,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Excellent</v>
+      </c>
+      <c r="F49" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f>_xlfn.XLOOKUP(F49,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="3">
+      <c r="E50" t="str" cm="1">
+        <f t="array" ref="E50">_xlfn.SWITCH(F50,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="F50" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f>_xlfn.XLOOKUP(F50,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="3">
+      <c r="E51" t="str" cm="1">
+        <f t="array" ref="E51">_xlfn.SWITCH(F51,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>OK</v>
+      </c>
+      <c r="F51" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f>_xlfn.XLOOKUP(F51,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="3">
+      <c r="E52" t="str" cm="1">
+        <f t="array" ref="E52">_xlfn.SWITCH(F52,9,"Excellent",8,"Very Good",7,"Good",6,"OK",5,"Poor")</f>
+        <v>Poor</v>
+      </c>
+      <c r="F52" s="2">
         <v>5</v>
+      </c>
+      <c r="H52" t="str">
+        <f>_xlfn.XLOOKUP(F52,$B$3:$B$7,$A$3:$A$7)</f>
+        <v>Poor</v>
       </c>
     </row>
   </sheetData>
@@ -1097,5 +1501,6 @@
     <sortCondition ref="D6:D52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>